--- a/tradept/Excel/Localization/english/J技能页_SkillPages_HJJH_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/J技能页_SkillPages_HJJH_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECC0473-A8FA-406A-8397-63F51EE138DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34110569-2F80-49AE-8A2F-7CC329AB6BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -95,27 +95,27 @@
 张月太极玄阴引强化1#4,2#张月太极玄阴引,1</t>
   </si>
   <si>
-    <t>Foot of the Ink Sword Bai Li - Pie de la Espada de Tinta Bai Li (#1,4)
-True Words of the Ink Sword - Sword One - Verdaderas Palabras de la Espada de Tinta - Espada Uno (#1,2)
-True Words of the Ink Sword - Sword One Enhancement 1 - Mejora 1 de las Verdaderas Palabras de la Espada de Tinta - Espada Uno (#1,1) - Requiere Verdaderas Palabras de la Espada de Tinta - Espada Uno (#1,1)
-True Words of the Ink Sword - Sword One Enhancement 2 - Mejora 2 de las Verdaderas Palabras de la Espada de Tinta - Espada Uno (#1,3) - Requiere Verdaderas Palabras de la Espada de Tinta - Espada Uno (#1,1)
-Ancient Technique of the Ink Sword - Técnica Antigua de la Espada de Tinta (#2,2) - Requiere Verdaderas Palabras de la Espada de Tinta - Espada Uno (#1,1) - [$tagrole:level$][&gt;=]8 - Requiere nivel de personaje 8
-Ancient Technique of the Ink Sword Enhancement 1 - Mejora 1 de la Técnica Antigua de la Espada de Tinta (#2,1) - Requiere Técnica Antigua de la Espada de Tinta (#2,1)
-Ancient Technique of the Ink Sword Enhancement 2 - Mejora 2 de la Técnica Antigua de la Espada de Tinta (#3,2) - Requiere Técnica Antigua de la Espada de Tinta (#2,1)
-Splendor of the Ink Sword - Esplendor de la Espada de Tinta (#4,2) - Requiere Mejora 2 de la Técnica Antigua de la Espada de Tinta (#3,2) - [$tagrole:level$][&gt;=]12 - Requiere nivel de personaje 12
-Splendor of the Ink Sword Enhancement 1 - Mejora 1 del Esplendor de la Espada de Tinta (#5,2) - Requiere Esplendor de la Espada de Tinta (#4,2)</t>
-  </si>
-  <si>
-    <t>Zhang Yueyue - Hoja del Frío Blanco - Zhang Yueyue Bai Han Ren (#1,2) - [$tagrole:level$][&gt;=]5 - Alcanza el nivel de personaje 5
-Zhang Yueyue - Hoja del Frío Blanco - Mejora 1 - Zhang Yueyue Bai Han Ren Enhancement 1 (#2,2) - Requiere Zhang Yueyue - Hoja del Frío Blanco (#1,2)
-Zhang Yueyue - Resplandor del Blanco - Zhang Yueyue Bai Guang Hua (#1,1) - [%get_es:张月剧情614%][&lt;&gt;]-1 - Completa los dos primeros Turmoil
-Zhang Yueyue - Resplandor del Blanco - Mejora 1 - Zhang Yueyue Bai Guang Hua Enhancement 1 (#2,1) - Requiere Zhang Yueyue - Resplandor del Blanco (#1,1)
-Zhang Yueyue - Atadura Estelar - Zhang Yueyue Fu Xing Suo (#1,3) - [%get_es:张月剧情618%][&lt;&gt;]-1 - Completa el tercer Turmoil
-Zhang Yueyue - Atadura Estelar - Mejora 1 - Zhang Yueyue Fu Xing Suo Enhancement 1 (#2,3) - Requiere Zhang Yueyue - Atadura Estelar (#1,3)
-Zhang Yueyue - Lamento de Seda de Mozi - Zhang Yueyue Mo Zi Bei Si (#1,4) - [%get_es:张月剧情622%][&lt;&gt;]-1 - Completa el cuarto Turmoil
-Zhang Yueyue - Lamento de Seda de Mozi - Mejora 1 - Zhang Yueyue Mo Zi Bei Si Enhancement 1 (#2,4) - Requiere Zhang Yueyue - Lamento de Seda de Mozi (#1,4)
-Zhang Yueyue - Invocación del Yin Profundo del Tai Chi - Zhang Yueyue Tai Ji Xuan Yin Yin (#3,2) - [%get_es:张月剧情631%][&lt;&gt;]-1 - Completa el último Turmoil
-Zhang Yueyue - Invocación del Yin Profundo del Tai Chi - Mejora 1 - Zhang Yueyue Tai Ji Xuan Yin Yin Enhancement 1 (#4,2) - Requiere Zhang Yueyue - Invocación del Yin Profundo del Tai Chi (#3,2)</t>
+    <t>张月月白寒刃 #1,2# #[$tagrole:level$][&gt;=]5# Requer personagem nível 5
+张月月白寒刃 Fortalecimento 1 #2,2# Zhang Yue Moonblade, 1
+张月月白光华 #1,1# #[%get_es:张月剧情614%][&lt;&gt;]-1# Complete os dois primeiros Turbilhões
+张月月白光华 Fortalecimento 1 #2,1# Zhang Yue Moonlight, 1
+张月缚星锁 #1,3# #[%get_es:张月剧情618%][&lt;&gt;]-1# Complete o terceiro Turbilhão
+张月缚星锁 Fortalecimento 1 #2,3# Zhang Yue Starlock, 1
+张月墨子悲丝 #1,4# #[%get_es:张月剧情622%][&lt;&gt;]-1# Complete o quarto Turbilhão
+张月墨子悲丝 Fortalecimento 1 #2,4# Zhang Yue Mozi's Sorrow, 1
+张月太极玄阴引 #3,2# #[%get_es:张月剧情631%][&lt;&gt;]-1# Complete o último Turbilhão
+张月太极玄阴引 Fortalecimento 1 #4,2# Zhang Yue Taiji Profound Yin Induction, 1</t>
+  </si>
+  <si>
+    <t>墨剑百里之足#1,4
+墨剑真言一剑#1,2
+墨剑真言一剑强化1#1,1#墨剑真言一剑,1
+墨剑真言一剑强化2#1,3#墨剑真言一剑,1
+墨剑墨剑古诀#2,2#墨剑真言一剑,1#[$tagrole:level$][&gt;=]8#Requer personagem Lv. 8
+墨剑墨剑古诀强化1#2,1#墨剑墨剑古诀,1
+墨剑墨剑古诀强化2#3,2#墨剑墨剑古诀,1
+墨剑墨剑光华#4,2#墨剑墨剑古诀强化2,1#[$tagrole:level$][&gt;=]12#Requer personagem  Lv. 12
+墨剑墨剑光华强化1#5,2#墨剑墨剑光华,1</t>
   </si>
 </sst>
 </file>
@@ -222,25 +222,25 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -551,11 +551,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36">
       <c r="A1" s="3" t="s">
@@ -588,7 +593,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="409.5">
@@ -605,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
